--- a/state_results/Rivers/ManganuioteAoatRuatitiDomain_978943da46.xlsx
+++ b/state_results/Rivers/ManganuioteAoatRuatitiDomain_978943da46.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U103"/>
+  <dimension ref="A1:U120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,27 +567,27 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.93</v>
+        <v>2.77978</v>
       </c>
       <c r="G2" t="n">
-        <v>2.82280635112496</v>
+        <v>2.7621679818551</v>
       </c>
       <c r="H2" t="n">
+        <v>6.31585416250689</v>
+      </c>
+      <c r="I2" t="n">
         <v>5.82</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.52045</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>5.45459</v>
+        <v>5.32</v>
       </c>
       <c r="O2" t="n">
         <v>1789560.233</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00096</v>
+        <v>0.00103</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008785753149231801</v>
+        <v>0.0088214559616848</v>
       </c>
       <c r="H9" t="n">
         <v>0.357403289791569</v>
@@ -1167,7 +1167,7 @@
         <v>0.00092</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00223</v>
+        <v>0.00235</v>
       </c>
       <c r="N9" t="n">
         <v>0.01111</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00096</v>
+        <v>0.00103</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008785753149231801</v>
+        <v>0.0088214559616848</v>
       </c>
       <c r="H10" t="n">
         <v>0.357403289791569</v>
@@ -1248,7 +1248,7 @@
         <v>0.00092</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00223</v>
+        <v>0.00235</v>
       </c>
       <c r="N10" t="n">
         <v>0.01111</v>
@@ -1315,7 +1315,7 @@
         <v>0.028</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0608519698282783</v>
+        <v>0.060918932057252</v>
       </c>
       <c r="H11" t="n">
         <v>0.3178</v>
@@ -1396,7 +1396,7 @@
         <v>0.028</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0608519698282783</v>
+        <v>0.060918932057252</v>
       </c>
       <c r="H12" t="n">
         <v>0.3178</v>
@@ -1473,24 +1473,24 @@
         <v>0.045</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07058878528131091</v>
+        <v>0.0706779720788422</v>
       </c>
       <c r="H13" t="n">
-        <v>0.321</v>
+        <v>0.3212</v>
       </c>
       <c r="I13" t="n">
-        <v>0.23735</v>
+        <v>0.23709</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.009639999999999999</v>
+        <v>0.01002</v>
       </c>
       <c r="M13" t="n">
         <v>0.13662</v>
       </c>
       <c r="N13" t="n">
-        <v>0.21368</v>
+        <v>0.21367</v>
       </c>
       <c r="O13" t="n">
         <v>1789560.233</v>
@@ -1550,24 +1550,24 @@
         <v>0.045</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07058878528131091</v>
+        <v>0.0706779720788422</v>
       </c>
       <c r="H14" t="n">
-        <v>0.321</v>
+        <v>0.3212</v>
       </c>
       <c r="I14" t="n">
-        <v>0.23735</v>
+        <v>0.23709</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.009639999999999999</v>
+        <v>0.01002</v>
       </c>
       <c r="M14" t="n">
         <v>0.13662</v>
       </c>
       <c r="N14" t="n">
-        <v>0.21368</v>
+        <v>0.21367</v>
       </c>
       <c r="O14" t="n">
         <v>1789560.233</v>
@@ -1936,27 +1936,27 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.05</v>
+        <v>3.01</v>
       </c>
       <c r="G19" t="n">
-        <v>3.02452480894047</v>
+        <v>2.97680411590527</v>
       </c>
       <c r="H19" t="n">
-        <v>5.82</v>
+        <v>6.31585416250689</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5182</v>
+        <v>5.736</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M19" t="n">
-        <v>4.13474</v>
+        <v>4.132</v>
       </c>
       <c r="N19" t="n">
-        <v>5.41965</v>
+        <v>5.318</v>
       </c>
       <c r="O19" t="n">
         <v>1789560.233</v>
@@ -2182,7 +2182,7 @@
         <v>48</v>
       </c>
       <c r="G22" t="n">
-        <v>104.162824351682</v>
+        <v>104.161657854353</v>
       </c>
       <c r="H22" t="n">
         <v>1300</v>
@@ -2267,7 +2267,7 @@
         <v>48</v>
       </c>
       <c r="G23" t="n">
-        <v>104.162824351682</v>
+        <v>104.161657854353</v>
       </c>
       <c r="H23" t="n">
         <v>1300</v>
@@ -2352,7 +2352,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>104.162824351682</v>
+        <v>104.161657854353</v>
       </c>
       <c r="H24" t="n">
         <v>1300</v>
@@ -2437,7 +2437,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="n">
-        <v>104.162824351682</v>
+        <v>104.161657854353</v>
       </c>
       <c r="H25" t="n">
         <v>1300</v>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.00118</v>
+        <v>0.00122</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0024006089172959</v>
+        <v>0.0024542735526327</v>
       </c>
       <c r="H26" t="n">
         <v>0.0277212008170582</v>
@@ -2533,13 +2533,13 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.00081</v>
+        <v>0.00086</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00295</v>
+        <v>0.0031</v>
       </c>
       <c r="N26" t="n">
-        <v>0.00679</v>
+        <v>0.00698</v>
       </c>
       <c r="O26" t="n">
         <v>1789560.233</v>
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.00118</v>
+        <v>0.00122</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0024006089172959</v>
+        <v>0.0024542735526327</v>
       </c>
       <c r="H27" t="n">
         <v>0.0277212008170582</v>
@@ -2614,13 +2614,13 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.00081</v>
+        <v>0.00086</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00295</v>
+        <v>0.0031</v>
       </c>
       <c r="N27" t="n">
-        <v>0.00679</v>
+        <v>0.00698</v>
       </c>
       <c r="O27" t="n">
         <v>1789560.233</v>
@@ -2684,7 +2684,7 @@
         <v>0.035</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0689524882341449</v>
+        <v>0.0690249861317675</v>
       </c>
       <c r="H28" t="n">
         <v>0.271</v>
@@ -2695,7 +2695,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.00209</v>
+        <v>0.00245</v>
       </c>
       <c r="M28" t="n">
         <v>0.1649</v>
@@ -2765,7 +2765,7 @@
         <v>0.035</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0689524882341449</v>
+        <v>0.0690249861317675</v>
       </c>
       <c r="H29" t="n">
         <v>0.271</v>
@@ -2776,7 +2776,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.00209</v>
+        <v>0.00245</v>
       </c>
       <c r="M29" t="n">
         <v>0.1649</v>
@@ -2842,18 +2842,18 @@
         <v>0.045</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0766170361651566</v>
+        <v>0.0767127884149912</v>
       </c>
       <c r="H30" t="n">
         <v>0.275</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2345</v>
+        <v>0.2343</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.009639999999999999</v>
+        <v>0.01002</v>
       </c>
       <c r="M30" t="n">
         <v>0.168</v>
@@ -2919,18 +2919,18 @@
         <v>0.045</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0766170361651566</v>
+        <v>0.0767127884149912</v>
       </c>
       <c r="H31" t="n">
         <v>0.275</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2345</v>
+        <v>0.2343</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.009639999999999999</v>
+        <v>0.01002</v>
       </c>
       <c r="M31" t="n">
         <v>0.168</v>
@@ -3305,27 +3305,27 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>3.03091474668581</v>
+        <v>2.99473996999645</v>
       </c>
       <c r="H36" t="n">
         <v>6.7</v>
       </c>
       <c r="I36" t="n">
-        <v>5.59692</v>
+        <v>5.715</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>3.15</v>
+        <v>3.075</v>
       </c>
       <c r="M36" t="n">
-        <v>4.11842</v>
+        <v>4.115</v>
       </c>
       <c r="N36" t="n">
-        <v>5.41092</v>
+        <v>5.31</v>
       </c>
       <c r="O36" t="n">
         <v>1789560.233</v>
@@ -3551,7 +3551,7 @@
         <v>48</v>
       </c>
       <c r="G39" t="n">
-        <v>140.050707144908</v>
+        <v>140.04769550654</v>
       </c>
       <c r="H39" t="n">
         <v>1300</v>
@@ -3636,7 +3636,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="n">
-        <v>140.050707144908</v>
+        <v>140.04769550654</v>
       </c>
       <c r="H40" t="n">
         <v>1300</v>
@@ -3721,7 +3721,7 @@
         <v>48</v>
       </c>
       <c r="G41" t="n">
-        <v>140.050707144908</v>
+        <v>140.04769550654</v>
       </c>
       <c r="H41" t="n">
         <v>1300</v>
@@ -3806,7 +3806,7 @@
         <v>48</v>
       </c>
       <c r="G42" t="n">
-        <v>140.050707144908</v>
+        <v>140.04769550654</v>
       </c>
       <c r="H42" t="n">
         <v>1300</v>
@@ -3888,27 +3888,27 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.00166</v>
+        <v>0.0017</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0030838368801526</v>
+        <v>0.0031553310663905</v>
       </c>
       <c r="H43" t="n">
         <v>0.014663278791179</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01309</v>
+        <v>0.01332</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.00114</v>
+        <v>0.00121</v>
       </c>
       <c r="M43" t="n">
-        <v>0.00636</v>
+        <v>0.00662</v>
       </c>
       <c r="N43" t="n">
-        <v>0.00992</v>
+        <v>0.00996</v>
       </c>
       <c r="O43" t="n">
         <v>1789560.233</v>
@@ -3969,27 +3969,27 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.00166</v>
+        <v>0.0017</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0030838368801526</v>
+        <v>0.0031553310663905</v>
       </c>
       <c r="H44" t="n">
         <v>0.014663278791179</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01309</v>
+        <v>0.01332</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.00114</v>
+        <v>0.00121</v>
       </c>
       <c r="M44" t="n">
-        <v>0.00636</v>
+        <v>0.00662</v>
       </c>
       <c r="N44" t="n">
-        <v>0.00992</v>
+        <v>0.00996</v>
       </c>
       <c r="O44" t="n">
         <v>1789560.233</v>
@@ -4053,7 +4053,7 @@
         <v>0.029</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0644502345918421</v>
+        <v>0.06456368613528569</v>
       </c>
       <c r="H45" t="n">
         <v>0.271</v>
@@ -4064,7 +4064,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.00272</v>
+        <v>0.00308</v>
       </c>
       <c r="M45" t="n">
         <v>0.14881</v>
@@ -4134,7 +4134,7 @@
         <v>0.029</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0644502345918421</v>
+        <v>0.06456368613528569</v>
       </c>
       <c r="H46" t="n">
         <v>0.271</v>
@@ -4145,7 +4145,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.00272</v>
+        <v>0.00308</v>
       </c>
       <c r="M46" t="n">
         <v>0.14881</v>
@@ -4211,7 +4211,7 @@
         <v>0.045</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0725972231495564</v>
+        <v>0.0727058793318983</v>
       </c>
       <c r="H47" t="n">
         <v>0.275</v>
@@ -4222,7 +4222,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.01091</v>
+        <v>0.01127</v>
       </c>
       <c r="M47" t="n">
         <v>0.1597</v>
@@ -4288,7 +4288,7 @@
         <v>0.045</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0725972231495564</v>
+        <v>0.0727058793318983</v>
       </c>
       <c r="H48" t="n">
         <v>0.275</v>
@@ -4299,7 +4299,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.01091</v>
+        <v>0.01127</v>
       </c>
       <c r="M48" t="n">
         <v>0.1597</v>
@@ -4674,10 +4674,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.8</v>
+        <v>2.77978</v>
       </c>
       <c r="G53" t="n">
-        <v>2.81940778847805</v>
+        <v>2.79231398487558</v>
       </c>
       <c r="H53" t="n">
         <v>6.7</v>
@@ -4688,13 +4688,13 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>2.85</v>
+        <v>2.77978</v>
       </c>
       <c r="M53" t="n">
-        <v>3.799</v>
+        <v>3.7436</v>
       </c>
       <c r="N53" t="n">
-        <v>4.74318</v>
+        <v>4.57384</v>
       </c>
       <c r="O53" t="n">
         <v>1789560.233</v>
@@ -4920,7 +4920,7 @@
         <v>48</v>
       </c>
       <c r="G56" t="n">
-        <v>148.343810593184</v>
+        <v>148.340798954816</v>
       </c>
       <c r="H56" t="n">
         <v>1300</v>
@@ -5005,7 +5005,7 @@
         <v>48</v>
       </c>
       <c r="G57" t="n">
-        <v>148.343810593184</v>
+        <v>148.340798954816</v>
       </c>
       <c r="H57" t="n">
         <v>1300</v>
@@ -5090,7 +5090,7 @@
         <v>48</v>
       </c>
       <c r="G58" t="n">
-        <v>148.343810593184</v>
+        <v>148.340798954816</v>
       </c>
       <c r="H58" t="n">
         <v>1300</v>
@@ -5175,7 +5175,7 @@
         <v>48</v>
       </c>
       <c r="G59" t="n">
-        <v>148.343810593184</v>
+        <v>148.340798954816</v>
       </c>
       <c r="H59" t="n">
         <v>1300</v>
@@ -5257,27 +5257,27 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.00171</v>
+        <v>0.00173</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0029249411151785</v>
+        <v>0.0029947338830302</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0136074149875104</v>
+        <v>0.0136237810172071</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01229</v>
+        <v>0.0123</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.00114</v>
+        <v>0.00121</v>
       </c>
       <c r="M60" t="n">
-        <v>0.00516</v>
+        <v>0.00531</v>
       </c>
       <c r="N60" t="n">
-        <v>0.00886</v>
+        <v>0.008880000000000001</v>
       </c>
       <c r="O60" t="n">
         <v>1789560.233</v>
@@ -5338,27 +5338,27 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.00171</v>
+        <v>0.00173</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0029249411151785</v>
+        <v>0.0029947338830302</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0136074149875104</v>
+        <v>0.0136237810172071</v>
       </c>
       <c r="I61" t="n">
-        <v>0.01229</v>
+        <v>0.0123</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.00114</v>
+        <v>0.00121</v>
       </c>
       <c r="M61" t="n">
-        <v>0.00516</v>
+        <v>0.00531</v>
       </c>
       <c r="N61" t="n">
-        <v>0.00886</v>
+        <v>0.008880000000000001</v>
       </c>
       <c r="O61" t="n">
         <v>1789560.233</v>
@@ -5422,7 +5422,7 @@
         <v>0.036</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0693920907121147</v>
+        <v>0.0695259861898976</v>
       </c>
       <c r="H62" t="n">
         <v>0.271</v>
@@ -5433,7 +5433,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.00331</v>
+        <v>0.00393</v>
       </c>
       <c r="M62" t="n">
         <v>0.15596</v>
@@ -5503,7 +5503,7 @@
         <v>0.036</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0693920907121147</v>
+        <v>0.0695259861898976</v>
       </c>
       <c r="H63" t="n">
         <v>0.271</v>
@@ -5514,7 +5514,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.00331</v>
+        <v>0.00393</v>
       </c>
       <c r="M63" t="n">
         <v>0.15596</v>
@@ -5580,7 +5580,7 @@
         <v>0.045</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0762418170361271</v>
+        <v>0.0763461991539658</v>
       </c>
       <c r="H64" t="n">
         <v>0.275</v>
@@ -5591,7 +5591,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.01041</v>
+        <v>0.01052</v>
       </c>
       <c r="M64" t="n">
         <v>0.165</v>
@@ -5657,7 +5657,7 @@
         <v>0.045</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0762418170361271</v>
+        <v>0.0763461991539658</v>
       </c>
       <c r="H65" t="n">
         <v>0.275</v>
@@ -5668,7 +5668,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.01041</v>
+        <v>0.01052</v>
       </c>
       <c r="M65" t="n">
         <v>0.165</v>
@@ -6046,7 +6046,7 @@
         <v>2.8</v>
       </c>
       <c r="G70" t="n">
-        <v>2.81824219159944</v>
+        <v>2.78961477647231</v>
       </c>
       <c r="H70" t="n">
         <v>6.7</v>
@@ -6057,13 +6057,13 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M70" t="n">
-        <v>3.5868</v>
+        <v>3.4147</v>
       </c>
       <c r="N70" t="n">
-        <v>4.87954</v>
+        <v>4.75168</v>
       </c>
       <c r="O70" t="n">
         <v>1789560.233</v>
@@ -6289,7 +6289,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="n">
-        <v>151.394728231878</v>
+        <v>151.389308861054</v>
       </c>
       <c r="H73" t="n">
         <v>2000</v>
@@ -6374,7 +6374,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="n">
-        <v>151.394728231878</v>
+        <v>151.389308861054</v>
       </c>
       <c r="H74" t="n">
         <v>2000</v>
@@ -6459,7 +6459,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="n">
-        <v>151.394728231878</v>
+        <v>151.389308861054</v>
       </c>
       <c r="H75" t="n">
         <v>2000</v>
@@ -6544,7 +6544,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="n">
-        <v>151.394728231878</v>
+        <v>151.389308861054</v>
       </c>
       <c r="H76" t="n">
         <v>2000</v>
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.00219</v>
+        <v>0.00229</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0042659576443032</v>
+        <v>0.0043214383657445</v>
       </c>
       <c r="H77" t="n">
         <v>0.02</v>
@@ -6640,13 +6640,13 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00226</v>
+        <v>0.00232</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00868</v>
+        <v>0.008659999999999999</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01339</v>
+        <v>0.0135</v>
       </c>
       <c r="O77" t="n">
         <v>1789560.233</v>
@@ -6707,10 +6707,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.00219</v>
+        <v>0.00229</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0042659576443032</v>
+        <v>0.0043214383657445</v>
       </c>
       <c r="H78" t="n">
         <v>0.02</v>
@@ -6721,13 +6721,13 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00226</v>
+        <v>0.00232</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00868</v>
+        <v>0.008659999999999999</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01339</v>
+        <v>0.0135</v>
       </c>
       <c r="O78" t="n">
         <v>1789560.233</v>
@@ -6791,7 +6791,7 @@
         <v>0.046</v>
       </c>
       <c r="G79" t="n">
-        <v>0.07013823879084551</v>
+        <v>0.0702769319419177</v>
       </c>
       <c r="H79" t="n">
         <v>0.241</v>
@@ -6802,7 +6802,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.0045</v>
+        <v>0.00501</v>
       </c>
       <c r="M79" t="n">
         <v>0.15148</v>
@@ -6872,7 +6872,7 @@
         <v>0.046</v>
       </c>
       <c r="G80" t="n">
-        <v>0.07013823879084551</v>
+        <v>0.0702769319419177</v>
       </c>
       <c r="H80" t="n">
         <v>0.241</v>
@@ -6883,7 +6883,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.0045</v>
+        <v>0.00501</v>
       </c>
       <c r="M80" t="n">
         <v>0.15148</v>
@@ -6949,7 +6949,7 @@
         <v>0.055</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0761197223092087</v>
+        <v>0.0761806907004265</v>
       </c>
       <c r="H81" t="n">
         <v>0.245</v>
@@ -6966,7 +6966,7 @@
         <v>0.16356</v>
       </c>
       <c r="N81" t="n">
-        <v>0.20304</v>
+        <v>0.20297</v>
       </c>
       <c r="O81" t="n">
         <v>1789560.233</v>
@@ -7026,7 +7026,7 @@
         <v>0.055</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0761197223092087</v>
+        <v>0.0761806907004265</v>
       </c>
       <c r="H82" t="n">
         <v>0.245</v>
@@ -7043,7 +7043,7 @@
         <v>0.16356</v>
       </c>
       <c r="N82" t="n">
-        <v>0.20304</v>
+        <v>0.20297</v>
       </c>
       <c r="O82" t="n">
         <v>1789560.233</v>
@@ -7415,13 +7415,13 @@
         <v>2.75</v>
       </c>
       <c r="G87" t="n">
-        <v>2.58571473727627</v>
+        <v>2.59500047277815</v>
       </c>
       <c r="H87" t="n">
         <v>6.7</v>
       </c>
       <c r="I87" t="n">
-        <v>4.16382</v>
+        <v>4.59607</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -7658,7 +7658,7 @@
         <v>48</v>
       </c>
       <c r="G90" t="n">
-        <v>181.194539954446</v>
+        <v>181.188927034664</v>
       </c>
       <c r="H90" t="n">
         <v>2000</v>
@@ -7743,7 +7743,7 @@
         <v>48</v>
       </c>
       <c r="G91" t="n">
-        <v>181.194539954446</v>
+        <v>181.188927034664</v>
       </c>
       <c r="H91" t="n">
         <v>2000</v>
@@ -7828,7 +7828,7 @@
         <v>48</v>
       </c>
       <c r="G92" t="n">
-        <v>181.194539954446</v>
+        <v>181.188927034664</v>
       </c>
       <c r="H92" t="n">
         <v>2000</v>
@@ -7913,7 +7913,7 @@
         <v>48</v>
       </c>
       <c r="G93" t="n">
-        <v>181.194539954446</v>
+        <v>181.188927034664</v>
       </c>
       <c r="H93" t="n">
         <v>2000</v>
@@ -7995,10 +7995,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.00276</v>
+        <v>0.00282</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0046647257830237</v>
+        <v>0.0046971062231362</v>
       </c>
       <c r="H94" t="n">
         <v>0.02</v>
@@ -8009,13 +8009,13 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.00281</v>
+        <v>0.00288</v>
       </c>
       <c r="M94" t="n">
-        <v>0.00882</v>
+        <v>0.008789999999999999</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01343</v>
+        <v>0.01352</v>
       </c>
       <c r="O94" t="n">
         <v>1789560.233</v>
@@ -8076,10 +8076,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.00276</v>
+        <v>0.00282</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0046647257830237</v>
+        <v>0.0046971062231362</v>
       </c>
       <c r="H95" t="n">
         <v>0.02</v>
@@ -8090,13 +8090,13 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.00281</v>
+        <v>0.00288</v>
       </c>
       <c r="M95" t="n">
-        <v>0.00882</v>
+        <v>0.008789999999999999</v>
       </c>
       <c r="N95" t="n">
-        <v>0.01343</v>
+        <v>0.01352</v>
       </c>
       <c r="O95" t="n">
         <v>1789560.233</v>
@@ -8160,7 +8160,7 @@
         <v>0.0415</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0738623294729755</v>
+        <v>0.07402166188197321</v>
       </c>
       <c r="H96" t="n">
         <v>0.258</v>
@@ -8171,7 +8171,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.00464</v>
+        <v>0.00532</v>
       </c>
       <c r="M96" t="n">
         <v>0.16086</v>
@@ -8241,7 +8241,7 @@
         <v>0.0415</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0738623294729755</v>
+        <v>0.07402166188197321</v>
       </c>
       <c r="H97" t="n">
         <v>0.258</v>
@@ -8252,7 +8252,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00464</v>
+        <v>0.00532</v>
       </c>
       <c r="M97" t="n">
         <v>0.16086</v>
@@ -8318,10 +8318,10 @@
         <v>0.044</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0793739981059662</v>
+        <v>0.0794282153682988</v>
       </c>
       <c r="H98" t="n">
-        <v>0.261</v>
+        <v>0.2605</v>
       </c>
       <c r="I98" t="n">
         <v>0.2444</v>
@@ -8395,10 +8395,10 @@
         <v>0.044</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0793739981059662</v>
+        <v>0.0794282153682988</v>
       </c>
       <c r="H99" t="n">
-        <v>0.261</v>
+        <v>0.2605</v>
       </c>
       <c r="I99" t="n">
         <v>0.2444</v>
@@ -8754,6 +8754,1375 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2.41144902566206</v>
+      </c>
+      <c r="H104" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3.8625</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3.52646</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0097142857142857</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.01498</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.01802</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0097142857142857</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.01498</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.01802</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>49</v>
+      </c>
+      <c r="G107" t="n">
+        <v>217.437129100624</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1600</v>
+      </c>
+      <c r="J107" t="n">
+        <v>9.09090909090909</v>
+      </c>
+      <c r="K107" t="n">
+        <v>16.3636363636364</v>
+      </c>
+      <c r="L107" t="n">
+        <v>53</v>
+      </c>
+      <c r="M107" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="N107" t="n">
+        <v>904</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>49</v>
+      </c>
+      <c r="G108" t="n">
+        <v>217.437129100624</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1600</v>
+      </c>
+      <c r="J108" t="n">
+        <v>9.09090909090909</v>
+      </c>
+      <c r="K108" t="n">
+        <v>16.3636363636364</v>
+      </c>
+      <c r="L108" t="n">
+        <v>53</v>
+      </c>
+      <c r="M108" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="N108" t="n">
+        <v>904</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>49</v>
+      </c>
+      <c r="G109" t="n">
+        <v>217.437129100624</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1600</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9.09090909090909</v>
+      </c>
+      <c r="K109" t="n">
+        <v>16.3636363636364</v>
+      </c>
+      <c r="L109" t="n">
+        <v>53</v>
+      </c>
+      <c r="M109" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="N109" t="n">
+        <v>904</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>49</v>
+      </c>
+      <c r="G110" t="n">
+        <v>217.437129100624</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1600</v>
+      </c>
+      <c r="J110" t="n">
+        <v>9.09090909090909</v>
+      </c>
+      <c r="K110" t="n">
+        <v>16.3636363636364</v>
+      </c>
+      <c r="L110" t="n">
+        <v>53</v>
+      </c>
+      <c r="M110" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="N110" t="n">
+        <v>904</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0050373777584781</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.0256240179944387</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.01968</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>0.00258</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.00976</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.01473</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0050373777584781</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0256240179944387</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.01968</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>0.00258</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.00976</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.01473</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0696480897276395</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.2215</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>0.00625</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.12688</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.16256</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0696480897276395</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.2215</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>0.00625</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.12688</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.16256</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0752295922182013</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.2605</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.22725</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>0.01478</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.13384</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.17335</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0752295922182013</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.2605</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.22725</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.01478</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.13384</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.17335</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.185357142857143</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.3702</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.185357142857143</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.3702</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P118" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0225357142857143</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.0866</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.02698</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.03578</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ruatiti Domain</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0225357142857143</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.0866</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.02698</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.03578</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1789560.233</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/ManganuioteAoatRuatitiDomain_978943da46.xlsx
+++ b/state_results/Rivers/ManganuioteAoatRuatitiDomain_978943da46.xlsx
@@ -567,27 +567,27 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.77978</v>
+        <v>2.93</v>
       </c>
       <c r="G2" t="n">
-        <v>2.7621679818551</v>
+        <v>2.80440659868784</v>
       </c>
       <c r="H2" t="n">
-        <v>6.31585416250689</v>
+        <v>6.17426031120982</v>
       </c>
       <c r="I2" t="n">
-        <v>5.82</v>
+        <v>5.46779</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>5.32</v>
+        <v>5.32517</v>
       </c>
       <c r="O2" t="n">
         <v>1789560.233</v>
@@ -1936,21 +1936,21 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.01</v>
+        <v>3.05</v>
       </c>
       <c r="G19" t="n">
-        <v>2.97680411590527</v>
+        <v>3.00978806943437</v>
       </c>
       <c r="H19" t="n">
-        <v>6.31585416250689</v>
+        <v>6.17426031120982</v>
       </c>
       <c r="I19" t="n">
-        <v>5.736</v>
+        <v>5.45423</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M19" t="n">
         <v>4.132</v>
@@ -3305,27 +3305,27 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="G36" t="n">
-        <v>2.99473996999645</v>
+        <v>3.02182604341898</v>
       </c>
       <c r="H36" t="n">
         <v>6.7</v>
       </c>
       <c r="I36" t="n">
-        <v>5.715</v>
+        <v>5.73195</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>3.075</v>
+        <v>3.15</v>
       </c>
       <c r="M36" t="n">
         <v>4.115</v>
       </c>
       <c r="N36" t="n">
-        <v>5.31</v>
+        <v>5.40678</v>
       </c>
       <c r="O36" t="n">
         <v>1789560.233</v>
@@ -4674,10 +4674,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.77978</v>
+        <v>2.8</v>
       </c>
       <c r="G53" t="n">
-        <v>2.79231398487558</v>
+        <v>2.80452481934399</v>
       </c>
       <c r="H53" t="n">
         <v>6.7</v>
@@ -4688,13 +4688,13 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>2.77978</v>
+        <v>2.85</v>
       </c>
       <c r="M53" t="n">
-        <v>3.7436</v>
+        <v>3.77368</v>
       </c>
       <c r="N53" t="n">
-        <v>4.57384</v>
+        <v>4.24966</v>
       </c>
       <c r="O53" t="n">
         <v>1789560.233</v>
@@ -6046,7 +6046,7 @@
         <v>2.8</v>
       </c>
       <c r="G70" t="n">
-        <v>2.78961477647231</v>
+        <v>2.80251679025025</v>
       </c>
       <c r="H70" t="n">
         <v>6.7</v>
@@ -6057,13 +6057,13 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>3.4147</v>
+        <v>3.5868</v>
       </c>
       <c r="N70" t="n">
-        <v>4.75168</v>
+        <v>4.50689</v>
       </c>
       <c r="O70" t="n">
         <v>1789560.233</v>
@@ -7415,13 +7415,13 @@
         <v>2.75</v>
       </c>
       <c r="G87" t="n">
-        <v>2.59500047277815</v>
+        <v>2.58824950642988</v>
       </c>
       <c r="H87" t="n">
         <v>6.7</v>
       </c>
       <c r="I87" t="n">
-        <v>4.59607</v>
+        <v>4.28181</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -8781,10 +8781,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G104" t="n">
-        <v>2.41144902566206</v>
+        <v>2.37846280870084</v>
       </c>
       <c r="H104" t="n">
         <v>6.7</v>
@@ -8795,13 +8795,13 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="M104" t="n">
         <v>3.2</v>
       </c>
       <c r="N104" t="n">
-        <v>3.52646</v>
+        <v>3.477</v>
       </c>
       <c r="O104" t="n">
         <v>1789560.233</v>

--- a/state_results/Rivers/ManganuioteAoatRuatitiDomain_978943da46.xlsx
+++ b/state_results/Rivers/ManganuioteAoatRuatitiDomain_978943da46.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="65">
   <si>
     <t>site name</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U120"/>
+  <dimension ref="A1:U137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,25 +651,25 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>2.83</v>
       </c>
       <c r="G2">
-        <v>2.74462429080208</v>
+        <v>2.80139911963472</v>
       </c>
       <c r="H2">
-        <v>6.48317688449632</v>
+        <v>6.19159388656433</v>
       </c>
       <c r="I2">
-        <v>5.74846</v>
+        <v>5.6146</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3.075</v>
       </c>
       <c r="M2">
-        <v>3.99741</v>
+        <v>4.1</v>
       </c>
       <c r="N2">
         <v>5.32</v>
@@ -678,19 +681,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -707,7 +710,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>0.013</v>
@@ -737,19 +740,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -766,7 +769,7 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>0.013</v>
@@ -796,19 +799,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -825,7 +828,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>56.5</v>
@@ -861,19 +864,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -890,7 +893,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6">
         <v>56.5</v>
@@ -926,19 +929,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -955,7 +958,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>56.5</v>
@@ -991,19 +994,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1020,7 +1023,7 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <v>56.5</v>
@@ -1056,19 +1059,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1085,13 +1088,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9">
-        <v>0.00103</v>
+        <v>0.0011</v>
       </c>
       <c r="G9">
-        <v>0.0088214559616848</v>
+        <v>0.0089059125556065</v>
       </c>
       <c r="H9">
         <v>0.357403289791569</v>
@@ -1100,10 +1103,10 @@
         <v>0.01426</v>
       </c>
       <c r="L9">
-        <v>0.00092</v>
+        <v>0.00102</v>
       </c>
       <c r="M9">
-        <v>0.00235</v>
+        <v>0.00262</v>
       </c>
       <c r="N9">
         <v>0.01111</v>
@@ -1115,19 +1118,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1144,13 +1147,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10">
-        <v>0.00103</v>
+        <v>0.0011</v>
       </c>
       <c r="G10">
-        <v>0.0088214559616848</v>
+        <v>0.0089059125556065</v>
       </c>
       <c r="H10">
         <v>0.357403289791569</v>
@@ -1159,10 +1162,10 @@
         <v>0.01426</v>
       </c>
       <c r="L10">
-        <v>0.00092</v>
+        <v>0.00102</v>
       </c>
       <c r="M10">
-        <v>0.00235</v>
+        <v>0.00262</v>
       </c>
       <c r="N10">
         <v>0.01111</v>
@@ -1174,19 +1177,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1203,13 +1206,13 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>0.028</v>
       </c>
       <c r="G11">
-        <v>0.060918932057252</v>
+        <v>0.0608452174812048</v>
       </c>
       <c r="H11">
         <v>0.3178</v>
@@ -1218,7 +1221,7 @@
         <v>0.23068</v>
       </c>
       <c r="L11">
-        <v>0.002</v>
+        <v>0.00262</v>
       </c>
       <c r="M11">
         <v>0.13187</v>
@@ -1233,19 +1236,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1262,13 +1265,13 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>0.028</v>
       </c>
       <c r="G12">
-        <v>0.060918932057252</v>
+        <v>0.0608452174812048</v>
       </c>
       <c r="H12">
         <v>0.3178</v>
@@ -1277,7 +1280,7 @@
         <v>0.23068</v>
       </c>
       <c r="L12">
-        <v>0.002</v>
+        <v>0.00262</v>
       </c>
       <c r="M12">
         <v>0.13187</v>
@@ -1292,19 +1295,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1318,13 +1321,13 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13">
         <v>0.045</v>
       </c>
       <c r="G13">
-        <v>0.0706779720788422</v>
+        <v>0.07064159320391521</v>
       </c>
       <c r="H13">
         <v>0.3212</v>
@@ -1333,7 +1336,7 @@
         <v>0.23709</v>
       </c>
       <c r="L13">
-        <v>0.01002</v>
+        <v>0.0126</v>
       </c>
       <c r="M13">
         <v>0.13662</v>
@@ -1348,19 +1351,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1374,13 +1377,13 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14">
         <v>0.045</v>
       </c>
       <c r="G14">
-        <v>0.0706779720788422</v>
+        <v>0.07064159320391521</v>
       </c>
       <c r="H14">
         <v>0.3212</v>
@@ -1389,7 +1392,7 @@
         <v>0.23709</v>
       </c>
       <c r="L14">
-        <v>0.01002</v>
+        <v>0.0126</v>
       </c>
       <c r="M14">
         <v>0.13662</v>
@@ -1404,19 +1407,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1430,7 +1433,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>0.15</v>
@@ -1445,7 +1448,7 @@
         <v>0.3995</v>
       </c>
       <c r="L15">
-        <v>0.12</v>
+        <v>0.1205</v>
       </c>
       <c r="M15">
         <v>0.2581</v>
@@ -1460,19 +1463,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1486,7 +1489,7 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>0.15</v>
@@ -1501,7 +1504,7 @@
         <v>0.3995</v>
       </c>
       <c r="L16">
-        <v>0.12</v>
+        <v>0.1205</v>
       </c>
       <c r="M16">
         <v>0.2581</v>
@@ -1516,19 +1519,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1542,7 +1545,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17">
         <v>0.015</v>
@@ -1572,19 +1575,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1598,7 +1601,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18">
         <v>0.015</v>
@@ -1628,19 +1631,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1657,25 +1660,25 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>3.035</v>
       </c>
       <c r="G19">
-        <v>2.95901290317715</v>
+        <v>3.01058794753308</v>
       </c>
       <c r="H19">
-        <v>6.48317688449632</v>
+        <v>6.19159388656433</v>
       </c>
       <c r="I19">
-        <v>5.67876</v>
+        <v>5.57168</v>
       </c>
       <c r="L19">
         <v>3.1</v>
       </c>
       <c r="M19">
-        <v>4.03024</v>
+        <v>4.27097</v>
       </c>
       <c r="N19">
         <v>5.318</v>
@@ -1687,19 +1690,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1716,7 +1719,7 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20">
         <v>0.011</v>
@@ -1731,7 +1734,7 @@
         <v>0.588</v>
       </c>
       <c r="L20">
-        <v>0.013</v>
+        <v>0.0125</v>
       </c>
       <c r="M20">
         <v>0.0213</v>
@@ -1746,19 +1749,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1775,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21">
         <v>0.011</v>
@@ -1790,7 +1793,7 @@
         <v>0.588</v>
       </c>
       <c r="L21">
-        <v>0.013</v>
+        <v>0.0125</v>
       </c>
       <c r="M21">
         <v>0.0213</v>
@@ -1805,19 +1808,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1834,13 +1837,13 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22">
         <v>48</v>
       </c>
       <c r="G22">
-        <v>104.161657854353</v>
+        <v>104.163359545172</v>
       </c>
       <c r="H22">
         <v>1300</v>
@@ -1870,19 +1873,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1899,13 +1902,13 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23">
         <v>48</v>
       </c>
       <c r="G23">
-        <v>104.161657854353</v>
+        <v>104.163359545172</v>
       </c>
       <c r="H23">
         <v>1300</v>
@@ -1935,19 +1938,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1964,13 +1967,13 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24">
         <v>48</v>
       </c>
       <c r="G24">
-        <v>104.161657854353</v>
+        <v>104.163359545172</v>
       </c>
       <c r="H24">
         <v>1300</v>
@@ -2000,19 +2003,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2029,13 +2032,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25">
         <v>48</v>
       </c>
       <c r="G25">
-        <v>104.161657854353</v>
+        <v>104.163359545172</v>
       </c>
       <c r="H25">
         <v>1300</v>
@@ -2065,19 +2068,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2094,13 +2097,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26">
-        <v>0.00122</v>
+        <v>0.00137</v>
       </c>
       <c r="G26">
-        <v>0.0024542735526327</v>
+        <v>0.0025826138174177</v>
       </c>
       <c r="H26">
         <v>0.0277212008170582</v>
@@ -2109,13 +2112,13 @@
         <v>0.01046</v>
       </c>
       <c r="L26">
-        <v>0.00086</v>
+        <v>0.00114</v>
       </c>
       <c r="M26">
-        <v>0.0031</v>
+        <v>0.00342</v>
       </c>
       <c r="N26">
-        <v>0.00698</v>
+        <v>0.00746</v>
       </c>
       <c r="O26">
         <v>1789560.233</v>
@@ -2124,19 +2127,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2153,13 +2156,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27">
-        <v>0.00122</v>
+        <v>0.00137</v>
       </c>
       <c r="G27">
-        <v>0.0024542735526327</v>
+        <v>0.0025826138174177</v>
       </c>
       <c r="H27">
         <v>0.0277212008170582</v>
@@ -2168,13 +2171,13 @@
         <v>0.01046</v>
       </c>
       <c r="L27">
-        <v>0.00086</v>
+        <v>0.00114</v>
       </c>
       <c r="M27">
-        <v>0.0031</v>
+        <v>0.00342</v>
       </c>
       <c r="N27">
-        <v>0.00698</v>
+        <v>0.00746</v>
       </c>
       <c r="O27">
         <v>1789560.233</v>
@@ -2183,19 +2186,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2212,13 +2215,13 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F28">
         <v>0.035</v>
       </c>
       <c r="G28">
-        <v>0.0690249861317675</v>
+        <v>0.06901143475457799</v>
       </c>
       <c r="H28">
         <v>0.271</v>
@@ -2227,7 +2230,7 @@
         <v>0.2266</v>
       </c>
       <c r="L28">
-        <v>0.00245</v>
+        <v>0.00317</v>
       </c>
       <c r="M28">
         <v>0.1649</v>
@@ -2242,19 +2245,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2271,13 +2274,13 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29">
         <v>0.035</v>
       </c>
       <c r="G29">
-        <v>0.0690249861317675</v>
+        <v>0.06901143475457799</v>
       </c>
       <c r="H29">
         <v>0.271</v>
@@ -2286,7 +2289,7 @@
         <v>0.2266</v>
       </c>
       <c r="L29">
-        <v>0.00245</v>
+        <v>0.00317</v>
       </c>
       <c r="M29">
         <v>0.1649</v>
@@ -2301,19 +2304,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2327,13 +2330,13 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F30">
         <v>0.045</v>
       </c>
       <c r="G30">
-        <v>0.0767127884149912</v>
+        <v>0.0766685098370538</v>
       </c>
       <c r="H30">
         <v>0.275</v>
@@ -2342,7 +2345,7 @@
         <v>0.2343</v>
       </c>
       <c r="L30">
-        <v>0.01002</v>
+        <v>0.01327</v>
       </c>
       <c r="M30">
         <v>0.168</v>
@@ -2357,19 +2360,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2383,13 +2386,13 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F31">
         <v>0.045</v>
       </c>
       <c r="G31">
-        <v>0.0767127884149912</v>
+        <v>0.0766685098370538</v>
       </c>
       <c r="H31">
         <v>0.275</v>
@@ -2398,7 +2401,7 @@
         <v>0.2343</v>
       </c>
       <c r="L31">
-        <v>0.01002</v>
+        <v>0.01327</v>
       </c>
       <c r="M31">
         <v>0.168</v>
@@ -2413,19 +2416,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2439,7 +2442,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F32">
         <v>0.15</v>
@@ -2469,19 +2472,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2495,7 +2498,7 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F33">
         <v>0.15</v>
@@ -2525,19 +2528,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2551,7 +2554,7 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F34">
         <v>0.0135</v>
@@ -2566,7 +2569,7 @@
         <v>0.029</v>
       </c>
       <c r="L34">
-        <v>0.016</v>
+        <v>0.0155</v>
       </c>
       <c r="M34">
         <v>0.0203</v>
@@ -2581,19 +2584,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2607,7 +2610,7 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F35">
         <v>0.0135</v>
@@ -2622,7 +2625,7 @@
         <v>0.029</v>
       </c>
       <c r="L35">
-        <v>0.016</v>
+        <v>0.0155</v>
       </c>
       <c r="M35">
         <v>0.0203</v>
@@ -2637,19 +2640,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2666,25 +2669,25 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="G36">
-        <v>2.98216626306728</v>
+        <v>3.0299310561586</v>
       </c>
       <c r="H36">
         <v>6.7</v>
       </c>
       <c r="I36">
-        <v>5.715</v>
+        <v>5.56095</v>
       </c>
       <c r="L36">
-        <v>3.075</v>
+        <v>3.025</v>
       </c>
       <c r="M36">
-        <v>4.0128</v>
+        <v>4.23327</v>
       </c>
       <c r="N36">
         <v>5.31</v>
@@ -2696,19 +2699,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2725,7 +2728,7 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F37">
         <v>0.011</v>
@@ -2740,7 +2743,7 @@
         <v>0.5881999999999999</v>
       </c>
       <c r="L37">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="M37">
         <v>0.01988</v>
@@ -2755,19 +2758,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2784,7 +2787,7 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F38">
         <v>0.011</v>
@@ -2799,7 +2802,7 @@
         <v>0.5881999999999999</v>
       </c>
       <c r="L38">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="M38">
         <v>0.01988</v>
@@ -2814,19 +2817,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2843,13 +2846,13 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F39">
         <v>48</v>
       </c>
       <c r="G39">
-        <v>140.04769550654</v>
+        <v>140.051214947212</v>
       </c>
       <c r="H39">
         <v>1300</v>
@@ -2879,19 +2882,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2908,13 +2911,13 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F40">
         <v>48</v>
       </c>
       <c r="G40">
-        <v>140.04769550654</v>
+        <v>140.051214947212</v>
       </c>
       <c r="H40">
         <v>1300</v>
@@ -2944,19 +2947,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2973,13 +2976,13 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F41">
         <v>48</v>
       </c>
       <c r="G41">
-        <v>140.04769550654</v>
+        <v>140.051214947212</v>
       </c>
       <c r="H41">
         <v>1300</v>
@@ -3009,19 +3012,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3038,13 +3041,13 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F42">
         <v>48</v>
       </c>
       <c r="G42">
-        <v>140.04769550654</v>
+        <v>140.051214947212</v>
       </c>
       <c r="H42">
         <v>1300</v>
@@ -3074,19 +3077,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3103,28 +3106,28 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F43">
-        <v>0.0017</v>
+        <v>0.00181</v>
       </c>
       <c r="G43">
-        <v>0.0031553310663905</v>
+        <v>0.0033868347940627</v>
       </c>
       <c r="H43">
         <v>0.014663278791179</v>
       </c>
       <c r="I43">
-        <v>0.01332</v>
+        <v>0.01436</v>
       </c>
       <c r="L43">
-        <v>0.00121</v>
+        <v>0.00173</v>
       </c>
       <c r="M43">
-        <v>0.00662</v>
+        <v>0.00726</v>
       </c>
       <c r="N43">
-        <v>0.00996</v>
+        <v>0.0103</v>
       </c>
       <c r="O43">
         <v>1789560.233</v>
@@ -3133,19 +3136,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3162,28 +3165,28 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F44">
-        <v>0.0017</v>
+        <v>0.00181</v>
       </c>
       <c r="G44">
-        <v>0.0031553310663905</v>
+        <v>0.0033868347940627</v>
       </c>
       <c r="H44">
         <v>0.014663278791179</v>
       </c>
       <c r="I44">
-        <v>0.01332</v>
+        <v>0.01436</v>
       </c>
       <c r="L44">
-        <v>0.00121</v>
+        <v>0.00173</v>
       </c>
       <c r="M44">
-        <v>0.00662</v>
+        <v>0.00726</v>
       </c>
       <c r="N44">
-        <v>0.00996</v>
+        <v>0.0103</v>
       </c>
       <c r="O44">
         <v>1789560.233</v>
@@ -3192,19 +3195,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3221,13 +3224,13 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F45">
         <v>0.029</v>
       </c>
       <c r="G45">
-        <v>0.06456368613528569</v>
+        <v>0.0646359491378473</v>
       </c>
       <c r="H45">
         <v>0.271</v>
@@ -3236,7 +3239,7 @@
         <v>0.2112</v>
       </c>
       <c r="L45">
-        <v>0.00308</v>
+        <v>0.00476</v>
       </c>
       <c r="M45">
         <v>0.14881</v>
@@ -3251,19 +3254,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3280,13 +3283,13 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F46">
         <v>0.029</v>
       </c>
       <c r="G46">
-        <v>0.06456368613528569</v>
+        <v>0.0646359491378473</v>
       </c>
       <c r="H46">
         <v>0.271</v>
@@ -3295,7 +3298,7 @@
         <v>0.2112</v>
       </c>
       <c r="L46">
-        <v>0.00308</v>
+        <v>0.00476</v>
       </c>
       <c r="M46">
         <v>0.14881</v>
@@ -3310,19 +3313,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3336,13 +3339,13 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47">
         <v>0.045</v>
       </c>
       <c r="G47">
-        <v>0.0727058793318983</v>
+        <v>0.0726494346608389</v>
       </c>
       <c r="H47">
         <v>0.275</v>
@@ -3351,7 +3354,7 @@
         <v>0.2205</v>
       </c>
       <c r="L47">
-        <v>0.01127</v>
+        <v>0.014</v>
       </c>
       <c r="M47">
         <v>0.1597</v>
@@ -3366,19 +3369,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3392,13 +3395,13 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48">
         <v>0.045</v>
       </c>
       <c r="G48">
-        <v>0.0727058793318983</v>
+        <v>0.0726494346608389</v>
       </c>
       <c r="H48">
         <v>0.275</v>
@@ -3407,7 +3410,7 @@
         <v>0.2205</v>
       </c>
       <c r="L48">
-        <v>0.01127</v>
+        <v>0.014</v>
       </c>
       <c r="M48">
         <v>0.1597</v>
@@ -3422,19 +3425,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3448,7 +3451,7 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F49">
         <v>0.15</v>
@@ -3478,19 +3481,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3504,7 +3507,7 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F50">
         <v>0.15</v>
@@ -3534,19 +3537,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3560,7 +3563,7 @@
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F51">
         <v>0.014</v>
@@ -3575,7 +3578,7 @@
         <v>0.0353</v>
       </c>
       <c r="L51">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="M51">
         <v>0.019</v>
@@ -3590,19 +3593,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3616,7 +3619,7 @@
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F52">
         <v>0.014</v>
@@ -3631,7 +3634,7 @@
         <v>0.0353</v>
       </c>
       <c r="L52">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="M52">
         <v>0.019</v>
@@ -3646,19 +3649,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3675,13 +3678,13 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F53">
         <v>2.8</v>
       </c>
       <c r="G53">
-        <v>2.79389938988967</v>
+        <v>2.79792438472558</v>
       </c>
       <c r="H53">
         <v>6.7</v>
@@ -3696,7 +3699,7 @@
         <v>3.7436</v>
       </c>
       <c r="N53">
-        <v>4.49197</v>
+        <v>4.43936</v>
       </c>
       <c r="O53">
         <v>1789560.233</v>
@@ -3705,19 +3708,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3734,7 +3737,7 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F54">
         <v>0.01</v>
@@ -3749,7 +3752,7 @@
         <v>0.5884</v>
       </c>
       <c r="L54">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="M54">
         <v>0.01728</v>
@@ -3764,19 +3767,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3793,7 +3796,7 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F55">
         <v>0.01</v>
@@ -3808,7 +3811,7 @@
         <v>0.5884</v>
       </c>
       <c r="L55">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="M55">
         <v>0.01728</v>
@@ -3823,19 +3826,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3852,13 +3855,13 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F56">
         <v>48</v>
       </c>
       <c r="G56">
-        <v>148.340798954816</v>
+        <v>148.344318395487</v>
       </c>
       <c r="H56">
         <v>1300</v>
@@ -3873,7 +3876,7 @@
         <v>10.3448275862069</v>
       </c>
       <c r="L56">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M56">
         <v>170</v>
@@ -3888,19 +3891,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3917,13 +3920,13 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F57">
         <v>48</v>
       </c>
       <c r="G57">
-        <v>148.340798954816</v>
+        <v>148.344318395487</v>
       </c>
       <c r="H57">
         <v>1300</v>
@@ -3938,7 +3941,7 @@
         <v>10.3448275862069</v>
       </c>
       <c r="L57">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M57">
         <v>170</v>
@@ -3953,19 +3956,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3982,13 +3985,13 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F58">
         <v>48</v>
       </c>
       <c r="G58">
-        <v>148.340798954816</v>
+        <v>148.344318395487</v>
       </c>
       <c r="H58">
         <v>1300</v>
@@ -4003,7 +4006,7 @@
         <v>10.3448275862069</v>
       </c>
       <c r="L58">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M58">
         <v>170</v>
@@ -4018,19 +4021,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4047,13 +4050,13 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F59">
         <v>48</v>
       </c>
       <c r="G59">
-        <v>148.340798954816</v>
+        <v>148.344318395487</v>
       </c>
       <c r="H59">
         <v>1300</v>
@@ -4068,7 +4071,7 @@
         <v>10.3448275862069</v>
       </c>
       <c r="L59">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M59">
         <v>170</v>
@@ -4083,19 +4086,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4112,28 +4115,28 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F60">
-        <v>0.00173</v>
+        <v>0.00189</v>
       </c>
       <c r="G60">
-        <v>0.0029947338830302</v>
+        <v>0.0032281761106618</v>
       </c>
       <c r="H60">
-        <v>0.0136237810172071</v>
+        <v>0.0145674130736774</v>
       </c>
       <c r="I60">
-        <v>0.0123</v>
+        <v>0.01236</v>
       </c>
       <c r="L60">
-        <v>0.00121</v>
+        <v>0.00181</v>
       </c>
       <c r="M60">
-        <v>0.00531</v>
+        <v>0.00578</v>
       </c>
       <c r="N60">
-        <v>0.008880000000000001</v>
+        <v>0.0095</v>
       </c>
       <c r="O60">
         <v>1789560.233</v>
@@ -4142,19 +4145,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4171,28 +4174,28 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F61">
-        <v>0.00173</v>
+        <v>0.00189</v>
       </c>
       <c r="G61">
-        <v>0.0029947338830302</v>
+        <v>0.0032281761106618</v>
       </c>
       <c r="H61">
-        <v>0.0136237810172071</v>
+        <v>0.0145674130736774</v>
       </c>
       <c r="I61">
-        <v>0.0123</v>
+        <v>0.01236</v>
       </c>
       <c r="L61">
-        <v>0.00121</v>
+        <v>0.00181</v>
       </c>
       <c r="M61">
-        <v>0.00531</v>
+        <v>0.00578</v>
       </c>
       <c r="N61">
-        <v>0.008880000000000001</v>
+        <v>0.0095</v>
       </c>
       <c r="O61">
         <v>1789560.233</v>
@@ -4201,19 +4204,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4230,13 +4233,13 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F62">
         <v>0.036</v>
       </c>
       <c r="G62">
-        <v>0.0695259861898976</v>
+        <v>0.06963363092929151</v>
       </c>
       <c r="H62">
         <v>0.271</v>
@@ -4245,7 +4248,7 @@
         <v>0.2086</v>
       </c>
       <c r="L62">
-        <v>0.00393</v>
+        <v>0.00519</v>
       </c>
       <c r="M62">
         <v>0.15596</v>
@@ -4260,19 +4263,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4289,13 +4292,13 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F63">
         <v>0.036</v>
       </c>
       <c r="G63">
-        <v>0.0695259861898976</v>
+        <v>0.06963363092929151</v>
       </c>
       <c r="H63">
         <v>0.271</v>
@@ -4304,7 +4307,7 @@
         <v>0.2086</v>
       </c>
       <c r="L63">
-        <v>0.00393</v>
+        <v>0.00519</v>
       </c>
       <c r="M63">
         <v>0.15596</v>
@@ -4319,19 +4322,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4345,13 +4348,13 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F64">
         <v>0.045</v>
       </c>
       <c r="G64">
-        <v>0.0763461991539658</v>
+        <v>0.0763005368702088</v>
       </c>
       <c r="H64">
         <v>0.275</v>
@@ -4360,7 +4363,7 @@
         <v>0.217</v>
       </c>
       <c r="L64">
-        <v>0.01052</v>
+        <v>0.01254</v>
       </c>
       <c r="M64">
         <v>0.165</v>
@@ -4375,19 +4378,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4401,13 +4404,13 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F65">
         <v>0.045</v>
       </c>
       <c r="G65">
-        <v>0.0763461991539658</v>
+        <v>0.0763005368702088</v>
       </c>
       <c r="H65">
         <v>0.275</v>
@@ -4416,7 +4419,7 @@
         <v>0.217</v>
       </c>
       <c r="L65">
-        <v>0.01052</v>
+        <v>0.01254</v>
       </c>
       <c r="M65">
         <v>0.165</v>
@@ -4431,19 +4434,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4457,7 +4460,7 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F66">
         <v>0.14</v>
@@ -4487,19 +4490,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4513,7 +4516,7 @@
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F67">
         <v>0.14</v>
@@ -4543,19 +4546,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4569,7 +4572,7 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F68">
         <v>0.013</v>
@@ -4584,7 +4587,7 @@
         <v>0.036</v>
       </c>
       <c r="L68">
-        <v>0.0135</v>
+        <v>0.014</v>
       </c>
       <c r="M68">
         <v>0.01864</v>
@@ -4599,19 +4602,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4625,7 +4628,7 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F69">
         <v>0.013</v>
@@ -4640,7 +4643,7 @@
         <v>0.036</v>
       </c>
       <c r="L69">
-        <v>0.0135</v>
+        <v>0.014</v>
       </c>
       <c r="M69">
         <v>0.01864</v>
@@ -4655,19 +4658,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4684,13 +4687,13 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F70">
         <v>2.8</v>
       </c>
       <c r="G70">
-        <v>2.79128992139286</v>
+        <v>2.79554274612515</v>
       </c>
       <c r="H70">
         <v>6.7</v>
@@ -4699,13 +4702,13 @@
         <v>5.385</v>
       </c>
       <c r="L70">
-        <v>2.93188</v>
+        <v>3</v>
       </c>
       <c r="M70">
         <v>3.4147</v>
       </c>
       <c r="N70">
-        <v>4.68986</v>
+        <v>4.65013</v>
       </c>
       <c r="O70">
         <v>1789560.233</v>
@@ -4714,19 +4717,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4743,7 +4746,7 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F71">
         <v>0.008999999999999999</v>
@@ -4758,7 +4761,7 @@
         <v>0.339</v>
       </c>
       <c r="L71">
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
       <c r="M71">
         <v>0.014</v>
@@ -4773,19 +4776,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4802,7 +4805,7 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F72">
         <v>0.008999999999999999</v>
@@ -4817,7 +4820,7 @@
         <v>0.339</v>
       </c>
       <c r="L72">
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
       <c r="M72">
         <v>0.014</v>
@@ -4832,19 +4835,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4861,13 +4864,13 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F73">
         <v>39</v>
       </c>
       <c r="G73">
-        <v>151.389308861054</v>
+        <v>151.394505640029</v>
       </c>
       <c r="H73">
         <v>2000</v>
@@ -4882,7 +4885,7 @@
         <v>8.620689655172409</v>
       </c>
       <c r="L73">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M73">
         <v>156.4</v>
@@ -4897,19 +4900,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4926,13 +4929,13 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F74">
         <v>39</v>
       </c>
       <c r="G74">
-        <v>151.389308861054</v>
+        <v>151.394505640029</v>
       </c>
       <c r="H74">
         <v>2000</v>
@@ -4947,7 +4950,7 @@
         <v>8.620689655172409</v>
       </c>
       <c r="L74">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M74">
         <v>156.4</v>
@@ -4962,19 +4965,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4991,13 +4994,13 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F75">
         <v>39</v>
       </c>
       <c r="G75">
-        <v>151.389308861054</v>
+        <v>151.394505640029</v>
       </c>
       <c r="H75">
         <v>2000</v>
@@ -5012,7 +5015,7 @@
         <v>8.620689655172409</v>
       </c>
       <c r="L75">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M75">
         <v>156.4</v>
@@ -5027,19 +5030,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5056,13 +5059,13 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F76">
         <v>39</v>
       </c>
       <c r="G76">
-        <v>151.389308861054</v>
+        <v>151.394505640029</v>
       </c>
       <c r="H76">
         <v>2000</v>
@@ -5077,7 +5080,7 @@
         <v>8.620689655172409</v>
       </c>
       <c r="L76">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M76">
         <v>156.4</v>
@@ -5092,19 +5095,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5121,13 +5124,13 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F77">
-        <v>0.00229</v>
+        <v>0.00254</v>
       </c>
       <c r="G77">
-        <v>0.0043214383657445</v>
+        <v>0.0045223062871704</v>
       </c>
       <c r="H77">
         <v>0.02</v>
@@ -5136,13 +5139,13 @@
         <v>0.01798</v>
       </c>
       <c r="L77">
-        <v>0.00232</v>
+        <v>0.00297</v>
       </c>
       <c r="M77">
-        <v>0.008659999999999999</v>
+        <v>0.00876</v>
       </c>
       <c r="N77">
-        <v>0.0135</v>
+        <v>0.01448</v>
       </c>
       <c r="O77">
         <v>1789560.233</v>
@@ -5151,19 +5154,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5180,13 +5183,13 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F78">
-        <v>0.00229</v>
+        <v>0.00254</v>
       </c>
       <c r="G78">
-        <v>0.0043214383657445</v>
+        <v>0.0045223062871704</v>
       </c>
       <c r="H78">
         <v>0.02</v>
@@ -5195,13 +5198,13 @@
         <v>0.01798</v>
       </c>
       <c r="L78">
-        <v>0.00232</v>
+        <v>0.00297</v>
       </c>
       <c r="M78">
-        <v>0.008659999999999999</v>
+        <v>0.00876</v>
       </c>
       <c r="N78">
-        <v>0.0135</v>
+        <v>0.01448</v>
       </c>
       <c r="O78">
         <v>1789560.233</v>
@@ -5210,19 +5213,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5239,13 +5242,13 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F79">
         <v>0.046</v>
       </c>
       <c r="G79">
-        <v>0.0702769319419177</v>
+        <v>0.07043203410715219</v>
       </c>
       <c r="H79">
         <v>0.241</v>
@@ -5254,7 +5257,7 @@
         <v>0.1992</v>
       </c>
       <c r="L79">
-        <v>0.00501</v>
+        <v>0.007</v>
       </c>
       <c r="M79">
         <v>0.15148</v>
@@ -5269,19 +5272,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U79" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5298,13 +5301,13 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F80">
         <v>0.046</v>
       </c>
       <c r="G80">
-        <v>0.0702769319419177</v>
+        <v>0.07043203410715219</v>
       </c>
       <c r="H80">
         <v>0.241</v>
@@ -5313,7 +5316,7 @@
         <v>0.1992</v>
       </c>
       <c r="L80">
-        <v>0.00501</v>
+        <v>0.007</v>
       </c>
       <c r="M80">
         <v>0.15148</v>
@@ -5328,19 +5331,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5354,13 +5357,13 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F81">
         <v>0.055</v>
       </c>
       <c r="G81">
-        <v>0.0761806907004265</v>
+        <v>0.0761648931491555</v>
       </c>
       <c r="H81">
         <v>0.245</v>
@@ -5369,7 +5372,7 @@
         <v>0.205</v>
       </c>
       <c r="L81">
-        <v>0.0105</v>
+        <v>0.014</v>
       </c>
       <c r="M81">
         <v>0.16356</v>
@@ -5384,19 +5387,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5410,13 +5413,13 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F82">
         <v>0.055</v>
       </c>
       <c r="G82">
-        <v>0.0761806907004265</v>
+        <v>0.0761648931491555</v>
       </c>
       <c r="H82">
         <v>0.245</v>
@@ -5425,7 +5428,7 @@
         <v>0.205</v>
       </c>
       <c r="L82">
-        <v>0.0105</v>
+        <v>0.014</v>
       </c>
       <c r="M82">
         <v>0.16356</v>
@@ -5440,19 +5443,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5466,7 +5469,7 @@
         <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F83">
         <v>0.145</v>
@@ -5496,19 +5499,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5522,7 +5525,7 @@
         <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F84">
         <v>0.145</v>
@@ -5552,19 +5555,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5578,7 +5581,7 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F85">
         <v>0.013</v>
@@ -5608,19 +5611,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5634,7 +5637,7 @@
         <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F86">
         <v>0.013</v>
@@ -5664,19 +5667,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5693,22 +5696,22 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F87">
         <v>2.75</v>
       </c>
       <c r="G87">
-        <v>2.59329555574413</v>
+        <v>2.5921998609194</v>
       </c>
       <c r="H87">
         <v>6.7</v>
       </c>
       <c r="I87">
-        <v>4.51671</v>
+        <v>4.4657</v>
       </c>
       <c r="L87">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="M87">
         <v>3.2</v>
@@ -5723,19 +5726,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5752,7 +5755,7 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F88">
         <v>0.008999999999999999</v>
@@ -5767,7 +5770,7 @@
         <v>0.0211</v>
       </c>
       <c r="L88">
-        <v>0.011</v>
+        <v>0.0095</v>
       </c>
       <c r="M88">
         <v>0.01598</v>
@@ -5782,19 +5785,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5811,7 +5814,7 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F89">
         <v>0.008999999999999999</v>
@@ -5826,7 +5829,7 @@
         <v>0.0211</v>
       </c>
       <c r="L89">
-        <v>0.011</v>
+        <v>0.0095</v>
       </c>
       <c r="M89">
         <v>0.01598</v>
@@ -5841,19 +5844,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5870,13 +5873,13 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F90">
         <v>48</v>
       </c>
       <c r="G90">
-        <v>181.188927034664</v>
+        <v>181.190737984316</v>
       </c>
       <c r="H90">
         <v>2000</v>
@@ -5894,7 +5897,7 @@
         <v>48</v>
       </c>
       <c r="M90">
-        <v>199.96</v>
+        <v>199.968</v>
       </c>
       <c r="N90">
         <v>446.44</v>
@@ -5906,19 +5909,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5935,13 +5938,13 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F91">
         <v>48</v>
       </c>
       <c r="G91">
-        <v>181.188927034664</v>
+        <v>181.190737984316</v>
       </c>
       <c r="H91">
         <v>2000</v>
@@ -5959,7 +5962,7 @@
         <v>48</v>
       </c>
       <c r="M91">
-        <v>199.96</v>
+        <v>199.968</v>
       </c>
       <c r="N91">
         <v>446.44</v>
@@ -5971,19 +5974,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6000,13 +6003,13 @@
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F92">
         <v>48</v>
       </c>
       <c r="G92">
-        <v>181.188927034664</v>
+        <v>181.190737984316</v>
       </c>
       <c r="H92">
         <v>2000</v>
@@ -6024,7 +6027,7 @@
         <v>48</v>
       </c>
       <c r="M92">
-        <v>199.96</v>
+        <v>199.968</v>
       </c>
       <c r="N92">
         <v>446.44</v>
@@ -6036,19 +6039,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6065,13 +6068,13 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F93">
         <v>48</v>
       </c>
       <c r="G93">
-        <v>181.188927034664</v>
+        <v>181.190737984316</v>
       </c>
       <c r="H93">
         <v>2000</v>
@@ -6089,7 +6092,7 @@
         <v>48</v>
       </c>
       <c r="M93">
-        <v>199.96</v>
+        <v>199.968</v>
       </c>
       <c r="N93">
         <v>446.44</v>
@@ -6101,19 +6104,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6130,13 +6133,13 @@
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F94">
-        <v>0.00282</v>
+        <v>0.00295</v>
       </c>
       <c r="G94">
-        <v>0.0046971062231362</v>
+        <v>0.0048470685032116</v>
       </c>
       <c r="H94">
         <v>0.02</v>
@@ -6145,13 +6148,13 @@
         <v>0.01808</v>
       </c>
       <c r="L94">
-        <v>0.00288</v>
+        <v>0.00342</v>
       </c>
       <c r="M94">
-        <v>0.008789999999999999</v>
+        <v>0.009379999999999999</v>
       </c>
       <c r="N94">
-        <v>0.01352</v>
+        <v>0.0145</v>
       </c>
       <c r="O94">
         <v>1789560.233</v>
@@ -6160,19 +6163,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6189,13 +6192,13 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F95">
-        <v>0.00282</v>
+        <v>0.00295</v>
       </c>
       <c r="G95">
-        <v>0.0046971062231362</v>
+        <v>0.0048470685032116</v>
       </c>
       <c r="H95">
         <v>0.02</v>
@@ -6204,13 +6207,13 @@
         <v>0.01808</v>
       </c>
       <c r="L95">
-        <v>0.00288</v>
+        <v>0.00342</v>
       </c>
       <c r="M95">
-        <v>0.008789999999999999</v>
+        <v>0.009379999999999999</v>
       </c>
       <c r="N95">
-        <v>0.01352</v>
+        <v>0.0145</v>
       </c>
       <c r="O95">
         <v>1789560.233</v>
@@ -6219,19 +6222,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6248,13 +6251,13 @@
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F96">
         <v>0.0415</v>
       </c>
       <c r="G96">
-        <v>0.07402166188197321</v>
+        <v>0.0742213410314998</v>
       </c>
       <c r="H96">
         <v>0.258</v>
@@ -6263,7 +6266,7 @@
         <v>0.2392</v>
       </c>
       <c r="L96">
-        <v>0.00532</v>
+        <v>0.00726</v>
       </c>
       <c r="M96">
         <v>0.16086</v>
@@ -6278,19 +6281,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U96" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6307,13 +6310,13 @@
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F97">
         <v>0.0415</v>
       </c>
       <c r="G97">
-        <v>0.07402166188197321</v>
+        <v>0.0742213410314998</v>
       </c>
       <c r="H97">
         <v>0.258</v>
@@ -6322,7 +6325,7 @@
         <v>0.2392</v>
       </c>
       <c r="L97">
-        <v>0.00532</v>
+        <v>0.00726</v>
       </c>
       <c r="M97">
         <v>0.16086</v>
@@ -6337,19 +6340,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6363,13 +6366,13 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F98">
         <v>0.044</v>
       </c>
       <c r="G98">
-        <v>0.0794282153682988</v>
+        <v>0.07941185361876819</v>
       </c>
       <c r="H98">
         <v>0.2605</v>
@@ -6378,7 +6381,7 @@
         <v>0.2444</v>
       </c>
       <c r="L98">
-        <v>0.011</v>
+        <v>0.01327</v>
       </c>
       <c r="M98">
         <v>0.165</v>
@@ -6393,19 +6396,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6419,13 +6422,13 @@
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F99">
         <v>0.044</v>
       </c>
       <c r="G99">
-        <v>0.0794282153682988</v>
+        <v>0.07941185361876819</v>
       </c>
       <c r="H99">
         <v>0.2605</v>
@@ -6434,7 +6437,7 @@
         <v>0.2444</v>
       </c>
       <c r="L99">
-        <v>0.011</v>
+        <v>0.01327</v>
       </c>
       <c r="M99">
         <v>0.165</v>
@@ -6449,19 +6452,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6475,7 +6478,7 @@
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F100">
         <v>0.155</v>
@@ -6505,19 +6508,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U100" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6531,7 +6534,7 @@
         <v>49</v>
       </c>
       <c r="E101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F101">
         <v>0.155</v>
@@ -6561,19 +6564,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U101" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6587,7 +6590,7 @@
         <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F102">
         <v>0.0145</v>
@@ -6602,7 +6605,7 @@
         <v>0.0623</v>
       </c>
       <c r="L102">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="M102">
         <v>0.02598</v>
@@ -6617,19 +6620,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U102" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6643,7 +6646,7 @@
         <v>49</v>
       </c>
       <c r="E103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F103">
         <v>0.0145</v>
@@ -6658,7 +6661,7 @@
         <v>0.0623</v>
       </c>
       <c r="L103">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="M103">
         <v>0.02598</v>
@@ -6673,19 +6676,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U103" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6702,22 +6705,22 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F104">
         <v>2.6</v>
       </c>
       <c r="G104">
-        <v>2.42761942711994</v>
+        <v>2.44691321704453</v>
       </c>
       <c r="H104">
         <v>6.7</v>
       </c>
       <c r="I104">
-        <v>4.05688</v>
+        <v>4.41285</v>
       </c>
       <c r="L104">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="M104">
         <v>3.2</v>
@@ -6732,19 +6735,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6761,7 +6764,7 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F105">
         <v>0.008</v>
@@ -6776,7 +6779,7 @@
         <v>0.019</v>
       </c>
       <c r="L105">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="M105">
         <v>0.01498</v>
@@ -6791,19 +6794,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6820,7 +6823,7 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F106">
         <v>0.008</v>
@@ -6835,7 +6838,7 @@
         <v>0.019</v>
       </c>
       <c r="L106">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="M106">
         <v>0.01498</v>
@@ -6850,19 +6853,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6879,13 +6882,13 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F107">
         <v>49</v>
       </c>
       <c r="G107">
-        <v>217.437129100624</v>
+        <v>217.444420253756</v>
       </c>
       <c r="H107">
         <v>2000</v>
@@ -6900,10 +6903,10 @@
         <v>16.3636363636364</v>
       </c>
       <c r="L107">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M107">
-        <v>251.4</v>
+        <v>251.34</v>
       </c>
       <c r="N107">
         <v>904</v>
@@ -6915,19 +6918,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6944,13 +6947,13 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F108">
         <v>49</v>
       </c>
       <c r="G108">
-        <v>217.437129100624</v>
+        <v>217.444420253756</v>
       </c>
       <c r="H108">
         <v>2000</v>
@@ -6965,10 +6968,10 @@
         <v>16.3636363636364</v>
       </c>
       <c r="L108">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M108">
-        <v>251.4</v>
+        <v>251.34</v>
       </c>
       <c r="N108">
         <v>904</v>
@@ -6980,19 +6983,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7009,13 +7012,13 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F109">
         <v>49</v>
       </c>
       <c r="G109">
-        <v>217.437129100624</v>
+        <v>217.444420253756</v>
       </c>
       <c r="H109">
         <v>2000</v>
@@ -7030,10 +7033,10 @@
         <v>16.3636363636364</v>
       </c>
       <c r="L109">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M109">
-        <v>251.4</v>
+        <v>251.34</v>
       </c>
       <c r="N109">
         <v>904</v>
@@ -7045,19 +7048,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7074,13 +7077,13 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F110">
         <v>49</v>
       </c>
       <c r="G110">
-        <v>217.437129100624</v>
+        <v>217.444420253756</v>
       </c>
       <c r="H110">
         <v>2000</v>
@@ -7095,10 +7098,10 @@
         <v>16.3636363636364</v>
       </c>
       <c r="L110">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M110">
-        <v>251.4</v>
+        <v>251.34</v>
       </c>
       <c r="N110">
         <v>904</v>
@@ -7110,19 +7113,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7139,13 +7142,13 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F111">
         <v>0.0026</v>
       </c>
       <c r="G111">
-        <v>0.0050373777584781</v>
+        <v>0.0051330721197305</v>
       </c>
       <c r="H111">
         <v>0.0256240179944387</v>
@@ -7154,13 +7157,13 @@
         <v>0.01968</v>
       </c>
       <c r="L111">
-        <v>0.00258</v>
+        <v>0.0026</v>
       </c>
       <c r="M111">
-        <v>0.00976</v>
+        <v>0.0101</v>
       </c>
       <c r="N111">
-        <v>0.01473</v>
+        <v>0.01543</v>
       </c>
       <c r="O111">
         <v>1789560.233</v>
@@ -7169,19 +7172,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7198,13 +7201,13 @@
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F112">
         <v>0.0026</v>
       </c>
       <c r="G112">
-        <v>0.0050373777584781</v>
+        <v>0.0051330721197305</v>
       </c>
       <c r="H112">
         <v>0.0256240179944387</v>
@@ -7213,13 +7216,13 @@
         <v>0.01968</v>
       </c>
       <c r="L112">
-        <v>0.00258</v>
+        <v>0.0026</v>
       </c>
       <c r="M112">
-        <v>0.00976</v>
+        <v>0.0101</v>
       </c>
       <c r="N112">
-        <v>0.01473</v>
+        <v>0.01543</v>
       </c>
       <c r="O112">
         <v>1789560.233</v>
@@ -7228,19 +7231,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7257,13 +7260,13 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F113">
         <v>0.044</v>
       </c>
       <c r="G113">
-        <v>0.0696480897276395</v>
+        <v>0.06984082873067821</v>
       </c>
       <c r="H113">
         <v>0.258</v>
@@ -7272,7 +7275,7 @@
         <v>0.2215</v>
       </c>
       <c r="L113">
-        <v>0.00625</v>
+        <v>0.0155</v>
       </c>
       <c r="M113">
         <v>0.12688</v>
@@ -7287,19 +7290,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q113" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U113" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7316,13 +7319,13 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F114">
         <v>0.044</v>
       </c>
       <c r="G114">
-        <v>0.0696480897276395</v>
+        <v>0.06984082873067821</v>
       </c>
       <c r="H114">
         <v>0.258</v>
@@ -7331,7 +7334,7 @@
         <v>0.2215</v>
       </c>
       <c r="L114">
-        <v>0.00625</v>
+        <v>0.0155</v>
       </c>
       <c r="M114">
         <v>0.12688</v>
@@ -7346,19 +7349,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7372,13 +7375,13 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F115">
         <v>0.055</v>
       </c>
       <c r="G115">
-        <v>0.0752295922182013</v>
+        <v>0.07522364330448141</v>
       </c>
       <c r="H115">
         <v>0.2605</v>
@@ -7387,7 +7390,7 @@
         <v>0.22725</v>
       </c>
       <c r="L115">
-        <v>0.01478</v>
+        <v>0.0235</v>
       </c>
       <c r="M115">
         <v>0.13384</v>
@@ -7402,19 +7405,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U115" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7428,13 +7431,13 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F116">
         <v>0.055</v>
       </c>
       <c r="G116">
-        <v>0.0752295922182013</v>
+        <v>0.07522364330448141</v>
       </c>
       <c r="H116">
         <v>0.2605</v>
@@ -7443,7 +7446,7 @@
         <v>0.22725</v>
       </c>
       <c r="L116">
-        <v>0.01478</v>
+        <v>0.0235</v>
       </c>
       <c r="M116">
         <v>0.13384</v>
@@ -7458,19 +7461,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7484,7 +7487,7 @@
         <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F117">
         <v>0.16</v>
@@ -7499,7 +7502,7 @@
         <v>0.408</v>
       </c>
       <c r="L117">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="M117">
         <v>0.26</v>
@@ -7514,19 +7517,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q117" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U117" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7540,7 +7543,7 @@
         <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F118">
         <v>0.16</v>
@@ -7555,7 +7558,7 @@
         <v>0.408</v>
       </c>
       <c r="L118">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="M118">
         <v>0.26</v>
@@ -7570,19 +7573,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U118" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7596,7 +7599,7 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F119">
         <v>0.015</v>
@@ -7611,7 +7614,7 @@
         <v>0.0866</v>
       </c>
       <c r="L119">
-        <v>0.015</v>
+        <v>0.0155</v>
       </c>
       <c r="M119">
         <v>0.02698</v>
@@ -7626,19 +7629,19 @@
         <v>5646123.438</v>
       </c>
       <c r="Q119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U119" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7652,7 +7655,7 @@
         <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F120">
         <v>0.015</v>
@@ -7667,7 +7670,7 @@
         <v>0.0866</v>
       </c>
       <c r="L120">
-        <v>0.015</v>
+        <v>0.0155</v>
       </c>
       <c r="M120">
         <v>0.02698</v>
@@ -7682,19 +7685,1028 @@
         <v>5646123.438</v>
       </c>
       <c r="Q120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U120" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>39</v>
+      </c>
+      <c r="D121" t="s">
+        <v>51</v>
+      </c>
+      <c r="E121" t="s">
+        <v>52</v>
+      </c>
+      <c r="F121">
+        <v>2.6</v>
+      </c>
+      <c r="G121">
+        <v>2.57016940515313</v>
+      </c>
+      <c r="H121">
+        <v>8.02331787638057</v>
+      </c>
+      <c r="I121">
+        <v>5.06349</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>3.2</v>
+      </c>
+      <c r="N121">
+        <v>4.7156</v>
+      </c>
+      <c r="O121">
+        <v>1789560.233</v>
+      </c>
+      <c r="P121">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>53</v>
+      </c>
+      <c r="R121" t="s">
+        <v>54</v>
+      </c>
+      <c r="S121" t="s">
+        <v>55</v>
+      </c>
+      <c r="T121" t="s">
+        <v>56</v>
+      </c>
+      <c r="U121" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122" t="s">
+        <v>51</v>
+      </c>
+      <c r="E122" t="s">
+        <v>52</v>
+      </c>
+      <c r="F122">
+        <v>0.007</v>
+      </c>
+      <c r="G122">
+        <v>0.0090701754385964</v>
+      </c>
+      <c r="H122">
+        <v>0.026</v>
+      </c>
+      <c r="I122">
+        <v>0.019</v>
+      </c>
+      <c r="L122">
+        <v>0.007</v>
+      </c>
+      <c r="M122">
+        <v>0.01381</v>
+      </c>
+      <c r="N122">
+        <v>0.01794</v>
+      </c>
+      <c r="O122">
+        <v>1789560.233</v>
+      </c>
+      <c r="P122">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>53</v>
+      </c>
+      <c r="R122" t="s">
+        <v>54</v>
+      </c>
+      <c r="S122" t="s">
+        <v>55</v>
+      </c>
+      <c r="T122" t="s">
+        <v>56</v>
+      </c>
+      <c r="U122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" t="s">
+        <v>42</v>
+      </c>
+      <c r="D123" t="s">
+        <v>51</v>
+      </c>
+      <c r="E123" t="s">
+        <v>52</v>
+      </c>
+      <c r="F123">
+        <v>0.007</v>
+      </c>
+      <c r="G123">
+        <v>0.0090701754385964</v>
+      </c>
+      <c r="H123">
+        <v>0.026</v>
+      </c>
+      <c r="I123">
+        <v>0.019</v>
+      </c>
+      <c r="L123">
+        <v>0.007</v>
+      </c>
+      <c r="M123">
+        <v>0.01381</v>
+      </c>
+      <c r="N123">
+        <v>0.01794</v>
+      </c>
+      <c r="O123">
+        <v>1789560.233</v>
+      </c>
+      <c r="P123">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>53</v>
+      </c>
+      <c r="R123" t="s">
+        <v>54</v>
+      </c>
+      <c r="S123" t="s">
+        <v>55</v>
+      </c>
+      <c r="T123" t="s">
+        <v>56</v>
+      </c>
+      <c r="U123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" t="s">
+        <v>51</v>
+      </c>
+      <c r="E124" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124">
+        <v>48</v>
+      </c>
+      <c r="G124">
+        <v>178.823408217561</v>
+      </c>
+      <c r="H124">
+        <v>2000</v>
+      </c>
+      <c r="I124">
+        <v>1321.4</v>
+      </c>
+      <c r="J124">
+        <v>5.35714285714286</v>
+      </c>
+      <c r="K124">
+        <v>12.5</v>
+      </c>
+      <c r="L124">
+        <v>48</v>
+      </c>
+      <c r="M124">
+        <v>197.792</v>
+      </c>
+      <c r="N124">
+        <v>332.16</v>
+      </c>
+      <c r="O124">
+        <v>1789560.233</v>
+      </c>
+      <c r="P124">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>53</v>
+      </c>
+      <c r="R124" t="s">
+        <v>54</v>
+      </c>
+      <c r="S124" t="s">
+        <v>55</v>
+      </c>
+      <c r="T124" t="s">
+        <v>56</v>
+      </c>
+      <c r="U124" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" t="s">
+        <v>51</v>
+      </c>
+      <c r="E125" t="s">
+        <v>52</v>
+      </c>
+      <c r="F125">
+        <v>48</v>
+      </c>
+      <c r="G125">
+        <v>178.823408217561</v>
+      </c>
+      <c r="H125">
+        <v>2000</v>
+      </c>
+      <c r="I125">
+        <v>1321.4</v>
+      </c>
+      <c r="J125">
+        <v>5.35714285714286</v>
+      </c>
+      <c r="K125">
+        <v>12.5</v>
+      </c>
+      <c r="L125">
+        <v>48</v>
+      </c>
+      <c r="M125">
+        <v>197.792</v>
+      </c>
+      <c r="N125">
+        <v>332.16</v>
+      </c>
+      <c r="O125">
+        <v>1789560.233</v>
+      </c>
+      <c r="P125">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>53</v>
+      </c>
+      <c r="R125" t="s">
+        <v>54</v>
+      </c>
+      <c r="S125" t="s">
+        <v>55</v>
+      </c>
+      <c r="T125" t="s">
+        <v>56</v>
+      </c>
+      <c r="U125" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" t="s">
+        <v>39</v>
+      </c>
+      <c r="D126" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126">
+        <v>48</v>
+      </c>
+      <c r="G126">
+        <v>178.823408217561</v>
+      </c>
+      <c r="H126">
+        <v>2000</v>
+      </c>
+      <c r="I126">
+        <v>1321.4</v>
+      </c>
+      <c r="J126">
+        <v>5.35714285714286</v>
+      </c>
+      <c r="K126">
+        <v>12.5</v>
+      </c>
+      <c r="L126">
+        <v>48</v>
+      </c>
+      <c r="M126">
+        <v>197.792</v>
+      </c>
+      <c r="N126">
+        <v>332.16</v>
+      </c>
+      <c r="O126">
+        <v>1789560.233</v>
+      </c>
+      <c r="P126">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>53</v>
+      </c>
+      <c r="R126" t="s">
+        <v>54</v>
+      </c>
+      <c r="S126" t="s">
+        <v>55</v>
+      </c>
+      <c r="T126" t="s">
+        <v>56</v>
+      </c>
+      <c r="U126" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" t="s">
+        <v>51</v>
+      </c>
+      <c r="E127" t="s">
+        <v>52</v>
+      </c>
+      <c r="F127">
+        <v>48</v>
+      </c>
+      <c r="G127">
+        <v>178.823408217561</v>
+      </c>
+      <c r="H127">
+        <v>2000</v>
+      </c>
+      <c r="I127">
+        <v>1321.4</v>
+      </c>
+      <c r="J127">
+        <v>5.35714285714286</v>
+      </c>
+      <c r="K127">
+        <v>12.5</v>
+      </c>
+      <c r="L127">
+        <v>48</v>
+      </c>
+      <c r="M127">
+        <v>197.792</v>
+      </c>
+      <c r="N127">
+        <v>332.16</v>
+      </c>
+      <c r="O127">
+        <v>1789560.233</v>
+      </c>
+      <c r="P127">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>53</v>
+      </c>
+      <c r="R127" t="s">
+        <v>54</v>
+      </c>
+      <c r="S127" t="s">
+        <v>55</v>
+      </c>
+      <c r="T127" t="s">
+        <v>56</v>
+      </c>
+      <c r="U127" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>29</v>
+      </c>
+      <c r="C128" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" t="s">
+        <v>51</v>
+      </c>
+      <c r="E128" t="s">
+        <v>52</v>
+      </c>
+      <c r="F128">
+        <v>0.00255</v>
+      </c>
+      <c r="G128">
+        <v>0.0045119362201801</v>
+      </c>
+      <c r="H128">
+        <v>0.0256240179944387</v>
+      </c>
+      <c r="I128">
+        <v>0.02</v>
+      </c>
+      <c r="L128">
+        <v>0.00255</v>
+      </c>
+      <c r="M128">
+        <v>0.00755</v>
+      </c>
+      <c r="N128">
+        <v>0.01791</v>
+      </c>
+      <c r="O128">
+        <v>1789560.233</v>
+      </c>
+      <c r="P128">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>53</v>
+      </c>
+      <c r="R128" t="s">
+        <v>54</v>
+      </c>
+      <c r="S128" t="s">
+        <v>55</v>
+      </c>
+      <c r="T128" t="s">
+        <v>56</v>
+      </c>
+      <c r="U128" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" t="s">
+        <v>39</v>
+      </c>
+      <c r="D129" t="s">
+        <v>51</v>
+      </c>
+      <c r="E129" t="s">
+        <v>52</v>
+      </c>
+      <c r="F129">
+        <v>0.00255</v>
+      </c>
+      <c r="G129">
+        <v>0.0045119362201801</v>
+      </c>
+      <c r="H129">
+        <v>0.0256240179944387</v>
+      </c>
+      <c r="I129">
+        <v>0.02</v>
+      </c>
+      <c r="L129">
+        <v>0.00255</v>
+      </c>
+      <c r="M129">
+        <v>0.00755</v>
+      </c>
+      <c r="N129">
+        <v>0.01791</v>
+      </c>
+      <c r="O129">
+        <v>1789560.233</v>
+      </c>
+      <c r="P129">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>53</v>
+      </c>
+      <c r="R129" t="s">
+        <v>54</v>
+      </c>
+      <c r="S129" t="s">
+        <v>55</v>
+      </c>
+      <c r="T129" t="s">
+        <v>56</v>
+      </c>
+      <c r="U129" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" t="s">
+        <v>51</v>
+      </c>
+      <c r="E130" t="s">
+        <v>52</v>
+      </c>
+      <c r="F130">
+        <v>0.044</v>
+      </c>
+      <c r="G130">
+        <v>0.0721922580169352</v>
+      </c>
+      <c r="H130">
+        <v>0.258</v>
+      </c>
+      <c r="I130">
+        <v>0.22415</v>
+      </c>
+      <c r="L130">
+        <v>0.0195</v>
+      </c>
+      <c r="M130">
+        <v>0.13024</v>
+      </c>
+      <c r="N130">
+        <v>0.1879</v>
+      </c>
+      <c r="O130">
+        <v>1789560.233</v>
+      </c>
+      <c r="P130">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>53</v>
+      </c>
+      <c r="R130" t="s">
+        <v>54</v>
+      </c>
+      <c r="S130" t="s">
+        <v>55</v>
+      </c>
+      <c r="T130" t="s">
+        <v>56</v>
+      </c>
+      <c r="U130" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" t="s">
+        <v>51</v>
+      </c>
+      <c r="E131" t="s">
+        <v>52</v>
+      </c>
+      <c r="F131">
+        <v>0.044</v>
+      </c>
+      <c r="G131">
+        <v>0.0721922580169352</v>
+      </c>
+      <c r="H131">
+        <v>0.258</v>
+      </c>
+      <c r="I131">
+        <v>0.22415</v>
+      </c>
+      <c r="L131">
+        <v>0.0195</v>
+      </c>
+      <c r="M131">
+        <v>0.13024</v>
+      </c>
+      <c r="N131">
+        <v>0.1879</v>
+      </c>
+      <c r="O131">
+        <v>1789560.233</v>
+      </c>
+      <c r="P131">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>53</v>
+      </c>
+      <c r="R131" t="s">
+        <v>54</v>
+      </c>
+      <c r="S131" t="s">
+        <v>55</v>
+      </c>
+      <c r="T131" t="s">
+        <v>56</v>
+      </c>
+      <c r="U131" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" t="s">
+        <v>51</v>
+      </c>
+      <c r="E132" t="s">
+        <v>52</v>
+      </c>
+      <c r="F132">
+        <v>0.059</v>
+      </c>
+      <c r="G132">
+        <v>0.0776564556190297</v>
+      </c>
+      <c r="H132">
+        <v>0.2605</v>
+      </c>
+      <c r="I132">
+        <v>0.2311</v>
+      </c>
+      <c r="L132">
+        <v>0.0345</v>
+      </c>
+      <c r="M132">
+        <v>0.13886</v>
+      </c>
+      <c r="N132">
+        <v>0.18945</v>
+      </c>
+      <c r="O132">
+        <v>1789560.233</v>
+      </c>
+      <c r="P132">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>53</v>
+      </c>
+      <c r="R132" t="s">
+        <v>54</v>
+      </c>
+      <c r="S132" t="s">
+        <v>55</v>
+      </c>
+      <c r="T132" t="s">
+        <v>56</v>
+      </c>
+      <c r="U132" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" t="s">
+        <v>51</v>
+      </c>
+      <c r="E133" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133">
+        <v>0.059</v>
+      </c>
+      <c r="G133">
+        <v>0.0776564556190297</v>
+      </c>
+      <c r="H133">
+        <v>0.2605</v>
+      </c>
+      <c r="I133">
+        <v>0.2311</v>
+      </c>
+      <c r="L133">
+        <v>0.0345</v>
+      </c>
+      <c r="M133">
+        <v>0.13886</v>
+      </c>
+      <c r="N133">
+        <v>0.18945</v>
+      </c>
+      <c r="O133">
+        <v>1789560.233</v>
+      </c>
+      <c r="P133">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>53</v>
+      </c>
+      <c r="R133" t="s">
+        <v>54</v>
+      </c>
+      <c r="S133" t="s">
+        <v>55</v>
+      </c>
+      <c r="T133" t="s">
+        <v>56</v>
+      </c>
+      <c r="U133" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>35</v>
+      </c>
+      <c r="D134" t="s">
+        <v>51</v>
+      </c>
+      <c r="E134" t="s">
+        <v>52</v>
+      </c>
+      <c r="F134">
+        <v>0.16</v>
+      </c>
+      <c r="G134">
+        <v>0.178070175438596</v>
+      </c>
+      <c r="H134">
+        <v>0.44</v>
+      </c>
+      <c r="I134">
+        <v>0.3765</v>
+      </c>
+      <c r="L134">
+        <v>0.12</v>
+      </c>
+      <c r="M134">
+        <v>0.2762</v>
+      </c>
+      <c r="N134">
+        <v>0.3464</v>
+      </c>
+      <c r="O134">
+        <v>1789560.233</v>
+      </c>
+      <c r="P134">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>53</v>
+      </c>
+      <c r="R134" t="s">
+        <v>54</v>
+      </c>
+      <c r="S134" t="s">
+        <v>55</v>
+      </c>
+      <c r="T134" t="s">
+        <v>56</v>
+      </c>
+      <c r="U134" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" t="s">
+        <v>51</v>
+      </c>
+      <c r="E135" t="s">
+        <v>52</v>
+      </c>
+      <c r="F135">
+        <v>0.16</v>
+      </c>
+      <c r="G135">
+        <v>0.178070175438596</v>
+      </c>
+      <c r="H135">
+        <v>0.44</v>
+      </c>
+      <c r="I135">
+        <v>0.3765</v>
+      </c>
+      <c r="L135">
+        <v>0.12</v>
+      </c>
+      <c r="M135">
+        <v>0.2762</v>
+      </c>
+      <c r="N135">
+        <v>0.3464</v>
+      </c>
+      <c r="O135">
+        <v>1789560.233</v>
+      </c>
+      <c r="P135">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>53</v>
+      </c>
+      <c r="R135" t="s">
+        <v>54</v>
+      </c>
+      <c r="S135" t="s">
+        <v>55</v>
+      </c>
+      <c r="T135" t="s">
+        <v>56</v>
+      </c>
+      <c r="U135" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>37</v>
+      </c>
+      <c r="D136" t="s">
+        <v>51</v>
+      </c>
+      <c r="E136" t="s">
+        <v>52</v>
+      </c>
+      <c r="F136">
+        <v>0.013</v>
+      </c>
+      <c r="G136">
+        <v>0.0196491228070175</v>
+      </c>
+      <c r="H136">
+        <v>0.097</v>
+      </c>
+      <c r="I136">
+        <v>0.06035</v>
+      </c>
+      <c r="L136">
+        <v>0.013</v>
+      </c>
+      <c r="M136">
+        <v>0.02581</v>
+      </c>
+      <c r="N136">
+        <v>0.035</v>
+      </c>
+      <c r="O136">
+        <v>1789560.233</v>
+      </c>
+      <c r="P136">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>53</v>
+      </c>
+      <c r="R136" t="s">
+        <v>54</v>
+      </c>
+      <c r="S136" t="s">
+        <v>55</v>
+      </c>
+      <c r="T136" t="s">
+        <v>56</v>
+      </c>
+      <c r="U136" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>38</v>
+      </c>
+      <c r="D137" t="s">
+        <v>51</v>
+      </c>
+      <c r="E137" t="s">
+        <v>52</v>
+      </c>
+      <c r="F137">
+        <v>0.013</v>
+      </c>
+      <c r="G137">
+        <v>0.0196491228070175</v>
+      </c>
+      <c r="H137">
+        <v>0.097</v>
+      </c>
+      <c r="I137">
+        <v>0.06035</v>
+      </c>
+      <c r="L137">
+        <v>0.013</v>
+      </c>
+      <c r="M137">
+        <v>0.02581</v>
+      </c>
+      <c r="N137">
+        <v>0.035</v>
+      </c>
+      <c r="O137">
+        <v>1789560.233</v>
+      </c>
+      <c r="P137">
+        <v>5646123.438</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>53</v>
+      </c>
+      <c r="R137" t="s">
+        <v>54</v>
+      </c>
+      <c r="S137" t="s">
+        <v>55</v>
+      </c>
+      <c r="T137" t="s">
+        <v>56</v>
+      </c>
+      <c r="U137" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
